--- a/Meeting_Materials/Lim_Wei_Siong_Application_to_Employ_Research_Assistants_Form.xlsx
+++ b/Meeting_Materials/Lim_Wei_Siong_Application_to_Employ_Research_Assistants_Form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albertlor\Academic\URECA\Meeting_Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B683B8B-DC1D-4683-AD87-DDEF2B38F13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9285153-84C9-4FAA-A7D0-14FE5B7D5A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8230" yWindow="2640" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Job Title:</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>CCEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U2240200H	</t>
   </si>
 </sst>
 </file>
@@ -926,7 +929,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:I16"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1094,7 +1097,7 @@
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="61">
-        <v>44932</v>
+        <v>45078</v>
       </c>
       <c r="E9" s="62"/>
       <c r="F9" s="62"/>
@@ -1135,7 +1138,7 @@
       </c>
       <c r="C11" s="14"/>
       <c r="G11" s="43">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="H11" s="43"/>
       <c r="I11" s="43"/>
@@ -1327,7 +1330,9 @@
       <c r="J22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K22" s="42"/>
+      <c r="K22" s="42" t="s">
+        <v>32</v>
+      </c>
       <c r="L22" s="42"/>
       <c r="M22" s="4"/>
     </row>

--- a/Meeting_Materials/Lim_Wei_Siong_Application_to_Employ_Research_Assistants_Form.xlsx
+++ b/Meeting_Materials/Lim_Wei_Siong_Application_to_Employ_Research_Assistants_Form.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albertlor\Academic\URECA\Meeting_Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9285153-84C9-4FAA-A7D0-14FE5B7D5A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF78089F-3998-4F68-80D0-11A7387CCC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Job Title:</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>Data Collection in Construction Site</t>
-  </si>
-  <si>
-    <t>30/6/2023</t>
   </si>
   <si>
     <t>LIM WEI SIONG</t>
@@ -928,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1097,7 +1094,7 @@
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="61">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="E9" s="62"/>
       <c r="F9" s="62"/>
@@ -1107,8 +1104,8 @@
       <c r="J9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="63" t="s">
-        <v>29</v>
+      <c r="K9" s="63">
+        <v>45138</v>
       </c>
       <c r="L9" s="60"/>
       <c r="M9" s="4"/>
@@ -1138,7 +1135,7 @@
       </c>
       <c r="C11" s="14"/>
       <c r="G11" s="43">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H11" s="43"/>
       <c r="I11" s="43"/>
@@ -1222,7 +1219,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="64">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I16" s="64"/>
       <c r="J16" s="9"/>
@@ -1286,7 +1283,7 @@
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20" s="42"/>
       <c r="H20" s="42"/>
@@ -1322,7 +1319,7 @@
       <c r="D22" s="10"/>
       <c r="E22" s="9"/>
       <c r="F22" s="42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G22" s="42"/>
       <c r="H22" s="42"/>
@@ -1331,7 +1328,7 @@
         <v>9</v>
       </c>
       <c r="K22" s="42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L22" s="42"/>
       <c r="M22" s="4"/>
